--- a/public/data/secondment_staff.xlsx
+++ b/public/data/secondment_staff.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="70">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">DEPARTMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondment Staff</t>
   </si>
   <si>
     <t xml:space="preserve">Ms.</t>
@@ -413,13 +416,13 @@
     <tabColor rgb="FF00CC00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12:D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2:R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.83"/>
@@ -436,6 +439,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="30.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -490,22 +494,25 @@
       <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>509422</v>
@@ -513,24 +520,27 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="O2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>975890</v>
@@ -538,336 +548,381 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="O3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="O4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="O5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="O6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="O7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="O8" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="O9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="O10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="O11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="O12" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="O13" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="O14" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="O15" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="O16" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="O17" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
